--- a/database/sidis/expdata/3710.xlsx
+++ b/database/sidis/expdata/3710.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Desktop/Research Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D401C306-50C7-3348-8F4D-67D3B6DC498E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407FCE46-7B31-DA4F-A54D-C8F95823A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="5960" windowWidth="28040" windowHeight="16440" xr2:uid="{EB6CC909-1558-7641-AAB5-675CD9BBC778}"/>
+    <workbookView xWindow="460" yWindow="4480" windowWidth="28040" windowHeight="16440" xr2:uid="{EB6CC909-1558-7641-AAB5-675CD9BBC778}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -94,13 +103,16 @@
   </si>
   <si>
     <t>AUTcollins</t>
+  </si>
+  <si>
+    <t>depol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3B0AEF-8E03-6B42-B638-DF957079C0CA}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="T2" sqref="T2:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,8 +534,11 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2.1</v>
       </c>
@@ -582,8 +597,11 @@
       <c r="S2">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.39</v>
       </c>
@@ -642,8 +660,11 @@
       <c r="S3">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4700000000000002</v>
       </c>
@@ -702,8 +723,11 @@
       <c r="S4">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.73</v>
       </c>
@@ -761,8 +785,11 @@
       <c r="S5">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.89</v>
       </c>
@@ -821,8 +848,11 @@
       <c r="S6">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2.14</v>
       </c>
@@ -881,8 +911,11 @@
       <c r="S7">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2.2999999999999998</v>
       </c>
@@ -941,8 +974,11 @@
       <c r="S8">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2.5099999999999998</v>
       </c>
@@ -1000,8 +1036,11 @@
       <c r="S9">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1.83</v>
       </c>
@@ -1060,8 +1099,11 @@
       <c r="S10">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1.99</v>
       </c>
@@ -1120,8 +1162,11 @@
       <c r="S11">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2.1800000000000002</v>
       </c>
@@ -1180,8 +1225,11 @@
       <c r="S12">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2.38</v>
       </c>
@@ -1239,8 +1287,11 @@
       <c r="S13">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.78</v>
       </c>
@@ -1299,8 +1350,11 @@
       <c r="S14">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.87</v>
       </c>
@@ -1359,8 +1413,11 @@
       <c r="S15">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2.02</v>
       </c>
@@ -1419,8 +1476,11 @@
       <c r="S16">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2.29</v>
       </c>
@@ -1477,6 +1537,9 @@
       </c>
       <c r="S17">
         <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/sidis/expdata/3710.xlsx
+++ b/database/sidis/expdata/3710.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuamiller/Desktop/GIT/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407FCE46-7B31-DA4F-A54D-C8F95823A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A511ED4F-C00B-2048-9EFF-9BEE1543D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="4480" windowWidth="28040" windowHeight="16440" xr2:uid="{EB6CC909-1558-7641-AAB5-675CD9BBC778}"/>
+    <workbookView xWindow="14660" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{DEC9B6AF-AD6A-CC41-AD8A-28388ACD6802}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="24">
   <si>
     <t>Q2</t>
   </si>
@@ -93,19 +93,19 @@
     <t>xmax</t>
   </si>
   <si>
-    <t>HERMES</t>
-  </si>
-  <si>
-    <t>pi+</t>
+    <t>AUTcollins</t>
   </si>
   <si>
     <t>p</t>
   </si>
   <si>
-    <t>AUTcollins</t>
+    <t>pi-</t>
   </si>
   <si>
-    <t>depol</t>
+    <t>HERMES</t>
+  </si>
+  <si>
+    <t>depole</t>
   </si>
 </sst>
 </file>
@@ -467,11 +467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3B0AEF-8E03-6B42-B638-DF957079C0CA}">
-  <dimension ref="A1:T17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E6D70D-BB7D-0746-B7D9-47E1C9F5105A}">
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T17"/>
+    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
+      <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,40 +540,40 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2.1</v>
+        <v>1.46</v>
       </c>
       <c r="B2">
-        <v>8.4000000000000005E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C2">
-        <v>0.48399999999999999</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="D2">
-        <v>0.23899999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E2">
-        <v>0.14000000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>3.2300000000000002E-2</v>
+        <v>-1.06E-2</v>
       </c>
       <c r="H2">
-        <v>3.1800000000000002E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="I2">
-        <v>3.2000000000000002E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
         <v>1</v>
@@ -592,10 +592,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="R2">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S2">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S2">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
@@ -603,40 +603,40 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2.39</v>
+        <v>1.51</v>
       </c>
       <c r="B3">
-        <v>8.4000000000000005E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C3">
-        <v>0.55000000000000004</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D3">
-        <v>0.23799999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E3">
-        <v>0.29499999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>1.7600000000000001E-2</v>
+        <v>-6.6E-3</v>
       </c>
       <c r="H3">
-        <v>3.5700000000000003E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I3">
-        <v>1.1000000000000001E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
@@ -655,10 +655,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="R3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S3">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S3">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
@@ -666,40 +666,40 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2.4700000000000002</v>
+        <v>1.53</v>
       </c>
       <c r="B4">
-        <v>8.4000000000000005E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C4">
-        <v>0.57199999999999995</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="D4">
-        <v>0.23899999999999999</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E4">
-        <v>0.441</v>
+        <v>0.443</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>-1.43E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="H4">
-        <v>3.1E-2</v>
+        <v>1.9699999999999999E-2</v>
       </c>
       <c r="I4">
-        <v>4.5999999999999999E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
@@ -718,10 +718,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="R4">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S4">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S4">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -729,40 +729,40 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2.73</v>
+        <v>1.58</v>
       </c>
       <c r="B5">
-        <v>8.4000000000000005E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>0.63300000000000001</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="D5">
-        <v>0.24399999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="E5">
-        <v>0.64300000000000002</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>5.2600000000000001E-2</v>
+        <v>-4.36E-2</v>
       </c>
       <c r="H5">
-        <v>6.3799999999999996E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="I5">
-        <v>6.1000000000000004E-3</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
         <v>1</v>
@@ -780,10 +780,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="R5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S5">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S5">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -791,40 +791,40 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.89</v>
+        <v>1.43</v>
       </c>
       <c r="B6">
-        <v>8.4000000000000005E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C6">
-        <v>0.434</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D6">
-        <v>0.32100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E6">
-        <v>0.14199999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>8.6099999999999996E-2</v>
+        <v>-4.1799999999999997E-2</v>
       </c>
       <c r="H6">
-        <v>3.1099999999999999E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
       <c r="I6">
-        <v>4.7000000000000002E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
         <v>1</v>
@@ -843,10 +843,10 @@
         <v>0.37</v>
       </c>
       <c r="R6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S6">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S6">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
@@ -854,40 +854,40 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2.14</v>
+        <v>1.48</v>
       </c>
       <c r="B7">
-        <v>8.4000000000000005E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>0.49199999999999999</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="D7">
-        <v>0.32200000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E7">
-        <v>0.29299999999999998</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>-2.8199999999999999E-2</v>
+        <v>-0.115</v>
       </c>
       <c r="H7">
-        <v>5.3499999999999999E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I7">
-        <v>7.0000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>0.37</v>
       </c>
       <c r="R7">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S7">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S7">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -917,40 +917,40 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="B8">
-        <v>8.4000000000000005E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C8">
-        <v>0.53</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="D8">
-        <v>0.32100000000000001</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="E8">
-        <v>0.44400000000000001</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>-1.21E-2</v>
+        <v>-4.6800000000000001E-2</v>
       </c>
       <c r="H8">
-        <v>3.39E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="I8">
-        <v>1.6999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
         <v>1</v>
@@ -969,10 +969,10 @@
         <v>0.37</v>
       </c>
       <c r="R8">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S8">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S8">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -980,40 +980,40 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2.5099999999999998</v>
+        <v>1.55</v>
       </c>
       <c r="B9">
-        <v>8.4000000000000005E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C9">
-        <v>0.58099999999999996</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="D9">
-        <v>0.32500000000000001</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="E9">
-        <v>0.67600000000000005</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>-0.09</v>
+        <v>-1.7100000000000001E-2</v>
       </c>
       <c r="H9">
-        <v>4.3099999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I9">
-        <v>5.4999999999999997E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
         <v>1</v>
@@ -1031,10 +1031,10 @@
         <v>0.37</v>
       </c>
       <c r="R9">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S9">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S9">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -1042,40 +1042,40 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="B10">
-        <v>8.5000000000000006E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C10">
-        <v>0.42</v>
+        <v>0.505</v>
       </c>
       <c r="D10">
-        <v>0.42299999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="E10">
-        <v>0.14599999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>-0.1046</v>
+        <v>-5.8500000000000003E-2</v>
       </c>
       <c r="H10">
-        <v>3.3799999999999997E-2</v>
+        <v>5.1400000000000001E-2</v>
       </c>
       <c r="I10">
-        <v>1.5E-3</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
         <v>1</v>
@@ -1094,10 +1094,10 @@
         <v>0.49</v>
       </c>
       <c r="R10">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S10">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S10">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T10" t="b">
         <v>0</v>
@@ -1105,40 +1105,40 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1.99</v>
+        <v>1.45</v>
       </c>
       <c r="B11">
-        <v>8.5000000000000006E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C11">
-        <v>0.45500000000000002</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D11">
-        <v>0.42399999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="E11">
-        <v>0.29299999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>-4.1000000000000002E-2</v>
+        <v>9.2600000000000002E-2</v>
       </c>
       <c r="H11">
-        <v>5.0099999999999999E-2</v>
+        <v>8.8599999999999998E-2</v>
       </c>
       <c r="I11">
-        <v>2.2000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
         <v>1</v>
@@ -1157,10 +1157,10 @@
         <v>0.49</v>
       </c>
       <c r="R11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S11">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S11">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
@@ -1168,40 +1168,40 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2.1800000000000002</v>
+        <v>1.49</v>
       </c>
       <c r="B12">
-        <v>8.4000000000000005E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C12">
-        <v>0.502</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="D12">
-        <v>0.42499999999999999</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="E12">
-        <v>0.443</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G12">
-        <v>6.3E-3</v>
+        <v>-2.0899999999999998E-2</v>
       </c>
       <c r="H12">
-        <v>5.45E-2</v>
+        <v>5.4699999999999999E-2</v>
       </c>
       <c r="I12">
-        <v>6.0000000000000001E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
         <v>1</v>
@@ -1220,10 +1220,10 @@
         <v>0.49</v>
       </c>
       <c r="R12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S12">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S12">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T12" t="b">
         <v>0</v>
@@ -1231,40 +1231,40 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="B13">
-        <v>8.4000000000000005E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C13">
-        <v>0.55100000000000005</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="D13">
-        <v>0.42699999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="E13">
-        <v>0.71899999999999997</v>
+        <v>0.749</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>2.0199999999999999E-2</v>
+        <v>-2.5100000000000001E-2</v>
       </c>
       <c r="H13">
-        <v>3.7699999999999997E-2</v>
+        <v>2.7099999999999999E-2</v>
       </c>
       <c r="I13">
-        <v>1.9E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
         <v>1</v>
@@ -1282,10 +1282,10 @@
         <v>0.49</v>
       </c>
       <c r="R13">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S13">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S13">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T13" t="b">
         <v>0</v>
@@ -1293,40 +1293,40 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1.78</v>
+        <v>1.37</v>
       </c>
       <c r="B14">
-        <v>8.5000000000000006E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C14">
-        <v>0.40699999999999997</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D14">
-        <v>0.57799999999999996</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="E14">
-        <v>0.14799999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G14">
-        <v>-1.7600000000000001E-2</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="H14">
-        <v>3.8800000000000001E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I14">
-        <v>7.4999999999999997E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
         <v>1</v>
@@ -1345,10 +1345,10 @@
         <v>0.7</v>
       </c>
       <c r="R14">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S14">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S14">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T14" t="b">
         <v>0</v>
@@ -1356,40 +1356,40 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1.87</v>
+        <v>1.41</v>
       </c>
       <c r="B15">
-        <v>8.5000000000000006E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="C15">
-        <v>0.42699999999999999</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="D15">
         <v>0.57999999999999996</v>
       </c>
       <c r="E15">
-        <v>0.29499999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G15">
-        <v>-4.4600000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="H15">
-        <v>4.4600000000000001E-2</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="I15">
-        <v>1.3599999999999999E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
         <v>1</v>
@@ -1408,10 +1408,10 @@
         <v>0.7</v>
       </c>
       <c r="R15">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S15">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S15">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T15" t="b">
         <v>0</v>
@@ -1419,40 +1419,40 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>2.02</v>
+        <v>1.44</v>
       </c>
       <c r="B16">
-        <v>8.4000000000000005E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C16">
-        <v>0.46300000000000002</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D16">
-        <v>0.58299999999999996</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="E16">
-        <v>0.443</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16">
-        <v>5.67E-2</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="H16">
-        <v>5.8299999999999998E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="I16">
-        <v>9.7999999999999997E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s">
         <v>1</v>
@@ -1471,10 +1471,10 @@
         <v>0.7</v>
       </c>
       <c r="R16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S16">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S16">
-        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T16" t="b">
         <v>0</v>
@@ -1482,40 +1482,40 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>2.29</v>
+        <v>1.51</v>
       </c>
       <c r="B17">
-        <v>8.4000000000000005E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C17">
-        <v>0.53</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D17">
-        <v>0.58299999999999996</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E17">
-        <v>0.754</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>6.3100000000000003E-2</v>
+        <v>-5.4100000000000002E-2</v>
       </c>
       <c r="H17">
-        <v>4.2200000000000001E-2</v>
+        <v>3.6299999999999999E-2</v>
       </c>
       <c r="I17">
-        <v>1.8800000000000001E-2</v>
+        <v>6.3E-3</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
         <v>1</v>
@@ -1533,12 +1533,3024 @@
         <v>0.7</v>
       </c>
       <c r="R17">
+        <v>2.3E-2</v>
+      </c>
+      <c r="S17">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S17">
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2.1</v>
+      </c>
+      <c r="B18">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I18">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>N19</f>
+        <v>0.23</v>
+      </c>
+      <c r="P18">
+        <v>0.2</v>
+      </c>
+      <c r="Q18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R18">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S18">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="T17" t="b">
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2.37</v>
+      </c>
+      <c r="B19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D19">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="H19">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0.23</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19:O20" si="4">N20</f>
+        <v>0.36</v>
+      </c>
+      <c r="P19">
+        <v>0.2</v>
+      </c>
+      <c r="Q19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S19">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2.46</v>
+      </c>
+      <c r="B20">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="D20">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="I20">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0.36</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>0.54</v>
+      </c>
+      <c r="P20">
+        <v>0.2</v>
+      </c>
+      <c r="Q20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R20">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S20">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2.72</v>
+      </c>
+      <c r="B21">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>-3.7600000000000001E-2</v>
+      </c>
+      <c r="H21">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="I21">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>0.54</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>0.2</v>
+      </c>
+      <c r="Q21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R21">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S21">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1.88</v>
+      </c>
+      <c r="B22">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.432</v>
+      </c>
+      <c r="D22">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="H22">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="I22">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>N23</f>
+        <v>0.23</v>
+      </c>
+      <c r="P22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q22">
+        <v>0.37</v>
+      </c>
+      <c r="R22">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S22">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2.13</v>
+      </c>
+      <c r="B23">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C23">
+        <v>0.49</v>
+      </c>
+      <c r="D23">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="H23">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="I23">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0.23</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:O24" si="5">N24</f>
+        <v>0.36</v>
+      </c>
+      <c r="P23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q23">
+        <v>0.37</v>
+      </c>
+      <c r="R23">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S23">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="B24">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D24">
+        <v>0.32</v>
+      </c>
+      <c r="E24">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>-2.12E-2</v>
+      </c>
+      <c r="H24">
+        <v>4.02E-2</v>
+      </c>
+      <c r="I24">
+        <v>1E-3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0.36</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>0.54</v>
+      </c>
+      <c r="P24">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q24">
+        <v>0.37</v>
+      </c>
+      <c r="R24">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S24">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2.48</v>
+      </c>
+      <c r="B25">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D25">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25">
+        <v>-1.6299999999999999E-2</v>
+      </c>
+      <c r="H25">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="I25">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0.54</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q25">
+        <v>0.37</v>
+      </c>
+      <c r="R25">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S25">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1.82</v>
+      </c>
+      <c r="B26">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26">
+        <v>-5.8999999999999999E-3</v>
+      </c>
+      <c r="H26">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="I26">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>N27</f>
+        <v>0.23</v>
+      </c>
+      <c r="P26">
+        <v>0.37</v>
+      </c>
+      <c r="Q26">
+        <v>0.49</v>
+      </c>
+      <c r="R26">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S26">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1.95</v>
+      </c>
+      <c r="B27">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="H27">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="I27">
+        <v>6.3E-3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0.23</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27:O28" si="6">N28</f>
+        <v>0.36</v>
+      </c>
+      <c r="P27">
+        <v>0.37</v>
+      </c>
+      <c r="Q27">
+        <v>0.49</v>
+      </c>
+      <c r="R27">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S27">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2.17</v>
+      </c>
+      <c r="B28">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.502</v>
+      </c>
+      <c r="D28">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.442</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28">
+        <v>-7.2700000000000001E-2</v>
+      </c>
+      <c r="H28">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="I28">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0.36</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>0.54</v>
+      </c>
+      <c r="P28">
+        <v>0.37</v>
+      </c>
+      <c r="Q28">
+        <v>0.49</v>
+      </c>
+      <c r="R28">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S28">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2.37</v>
+      </c>
+      <c r="B29">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C29">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D29">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="H29">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="I29">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0.54</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>0.37</v>
+      </c>
+      <c r="Q29">
+        <v>0.49</v>
+      </c>
+      <c r="R29">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S29">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1.78</v>
+      </c>
+      <c r="B30">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C30">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D30">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E30">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>-7.22E-2</v>
+      </c>
+      <c r="H30">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="I30">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>N31</f>
+        <v>0.23</v>
+      </c>
+      <c r="P30">
+        <v>0.49</v>
+      </c>
+      <c r="Q30">
+        <v>0.7</v>
+      </c>
+      <c r="R30">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S30">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1.85</v>
+      </c>
+      <c r="B31">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E31">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31">
+        <v>-3.4799999999999998E-2</v>
+      </c>
+      <c r="H31">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="I31">
+        <v>1.12E-2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0.23</v>
+      </c>
+      <c r="O31">
+        <f t="shared" ref="O31:O32" si="7">N32</f>
+        <v>0.36</v>
+      </c>
+      <c r="P31">
+        <v>0.49</v>
+      </c>
+      <c r="Q31">
+        <v>0.7</v>
+      </c>
+      <c r="R31">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S31">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="D32">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="E32">
+        <v>0.442</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32">
+        <v>2.07E-2</v>
+      </c>
+      <c r="H32">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I32">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0.36</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>0.54</v>
+      </c>
+      <c r="P32">
+        <v>0.49</v>
+      </c>
+      <c r="Q32">
+        <v>0.7</v>
+      </c>
+      <c r="R32">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S32">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="B33">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D33">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E33">
+        <v>0.751</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33">
+        <v>-7.46E-2</v>
+      </c>
+      <c r="H33">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I33">
+        <v>1.04E-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0.54</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>0.49</v>
+      </c>
+      <c r="Q33">
+        <v>0.7</v>
+      </c>
+      <c r="R33">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S33">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2.86</v>
+      </c>
+      <c r="B34">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34">
+        <v>-3.2000000000000002E-3</v>
+      </c>
+      <c r="H34">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I34">
+        <v>1E-4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>N35</f>
+        <v>0.23</v>
+      </c>
+      <c r="P34">
+        <v>0.2</v>
+      </c>
+      <c r="Q34">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R34">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S34">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3.17</v>
+      </c>
+      <c r="B35">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D35">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="H35">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="I35">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0.23</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O36" si="8">N36</f>
+        <v>0.36</v>
+      </c>
+      <c r="P35">
+        <v>0.2</v>
+      </c>
+      <c r="Q35">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R35">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S35">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3.25</v>
+      </c>
+      <c r="B36">
+        <v>0.115</v>
+      </c>
+      <c r="C36">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D36">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.442</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <v>-2.0299999999999999E-2</v>
+      </c>
+      <c r="H36">
+        <v>4.19E-2</v>
+      </c>
+      <c r="I36">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J36" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>0.36</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>0.54</v>
+      </c>
+      <c r="P36">
+        <v>0.2</v>
+      </c>
+      <c r="Q36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R36">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S36">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3.54</v>
+      </c>
+      <c r="B37">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D37">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37">
+        <v>-6.1899999999999997E-2</v>
+      </c>
+      <c r="H37">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="I37">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>0.54</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>0.2</v>
+      </c>
+      <c r="Q37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R37">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S37">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2.52</v>
+      </c>
+      <c r="B38">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.42</v>
+      </c>
+      <c r="D38">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="H38">
+        <v>3.15E-2</v>
+      </c>
+      <c r="I38">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="J38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>N39</f>
+        <v>0.23</v>
+      </c>
+      <c r="P38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q38">
+        <v>0.37</v>
+      </c>
+      <c r="R38">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S38">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2.77</v>
+      </c>
+      <c r="B39">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D39">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="H39">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I39">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0.23</v>
+      </c>
+      <c r="O39">
+        <f t="shared" ref="O39:O40" si="9">N40</f>
+        <v>0.36</v>
+      </c>
+      <c r="P39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q39">
+        <v>0.37</v>
+      </c>
+      <c r="R39">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S39">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2.98</v>
+      </c>
+      <c r="B40">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40">
+        <v>-0.04</v>
+      </c>
+      <c r="H40">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="I40">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0.36</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="9"/>
+        <v>0.54</v>
+      </c>
+      <c r="P40">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q40">
+        <v>0.37</v>
+      </c>
+      <c r="R40">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S40">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3.17</v>
+      </c>
+      <c r="B41">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D41">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41">
+        <v>-7.4399999999999994E-2</v>
+      </c>
+      <c r="H41">
+        <v>5.79E-2</v>
+      </c>
+      <c r="I41">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>0.54</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q41">
+        <v>0.37</v>
+      </c>
+      <c r="R41">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S41">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2.39</v>
+      </c>
+      <c r="B42">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D42">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="H42">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="I42">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f>N43</f>
+        <v>0.23</v>
+      </c>
+      <c r="P42">
+        <v>0.37</v>
+      </c>
+      <c r="Q42">
+        <v>0.49</v>
+      </c>
+      <c r="R42">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S42">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2.48</v>
+      </c>
+      <c r="B43">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D43">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43">
+        <v>1.14E-2</v>
+      </c>
+      <c r="H43">
+        <v>4.36E-2</v>
+      </c>
+      <c r="I43">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>0.23</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43:O44" si="10">N44</f>
+        <v>0.36</v>
+      </c>
+      <c r="P43">
+        <v>0.37</v>
+      </c>
+      <c r="Q43">
+        <v>0.49</v>
+      </c>
+      <c r="R43">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S43">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2.8</v>
+      </c>
+      <c r="B44">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D44">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.441</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44">
+        <v>-4.0099999999999997E-2</v>
+      </c>
+      <c r="H44">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="I44">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>0.36</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>0.54</v>
+      </c>
+      <c r="P44">
+        <v>0.37</v>
+      </c>
+      <c r="Q44">
+        <v>0.49</v>
+      </c>
+      <c r="R44">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S44">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>0.115</v>
+      </c>
+      <c r="C45">
+        <v>0.504</v>
+      </c>
+      <c r="D45">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="H45">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="I45">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>0.54</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>0.37</v>
+      </c>
+      <c r="Q45">
+        <v>0.49</v>
+      </c>
+      <c r="R45">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S45">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2.37</v>
+      </c>
+      <c r="B46">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="D46">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E46">
+        <v>0.15</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="H46">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="I46">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f>N47</f>
+        <v>0.23</v>
+      </c>
+      <c r="P46">
+        <v>0.49</v>
+      </c>
+      <c r="Q46">
+        <v>0.7</v>
+      </c>
+      <c r="R46">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S46">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2.39</v>
+      </c>
+      <c r="B47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D47">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="E47">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H47">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I47">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" t="s">
+        <v>22</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>0.23</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ref="O47:O48" si="11">N48</f>
+        <v>0.36</v>
+      </c>
+      <c r="P47">
+        <v>0.49</v>
+      </c>
+      <c r="Q47">
+        <v>0.7</v>
+      </c>
+      <c r="R47">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S47">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B48">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D48">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="E48">
+        <v>0.441</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="H48">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="I48">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" t="s">
+        <v>22</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>0.36</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="11"/>
+        <v>0.54</v>
+      </c>
+      <c r="P48">
+        <v>0.49</v>
+      </c>
+      <c r="Q48">
+        <v>0.7</v>
+      </c>
+      <c r="R48">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S48">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2.92</v>
+      </c>
+      <c r="B49">
+        <v>0.115</v>
+      </c>
+      <c r="C49">
+        <v>0.49</v>
+      </c>
+      <c r="D49">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E49">
+        <v>0.747</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49">
+        <v>-0.1166</v>
+      </c>
+      <c r="H49">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="I49">
+        <v>1.14E-2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0.54</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>0.49</v>
+      </c>
+      <c r="Q49">
+        <v>0.7</v>
+      </c>
+      <c r="R49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="S49">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4.91</v>
+      </c>
+      <c r="B50">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D50">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50">
+        <v>-3.2199999999999999E-2</v>
+      </c>
+      <c r="H50">
+        <v>2.52E-2</v>
+      </c>
+      <c r="I50">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>N51</f>
+        <v>0.23</v>
+      </c>
+      <c r="P50">
+        <v>0.2</v>
+      </c>
+      <c r="Q50">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R50">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S50">
+        <v>0.6</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5.22</v>
+      </c>
+      <c r="B51">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C51">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D51">
+        <v>0.24</v>
+      </c>
+      <c r="E51">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51">
+        <v>-6.4500000000000002E-2</v>
+      </c>
+      <c r="H51">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="I51">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0.23</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ref="O51:O52" si="12">N52</f>
+        <v>0.36</v>
+      </c>
+      <c r="P51">
+        <v>0.2</v>
+      </c>
+      <c r="Q51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R51">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S51">
+        <v>0.6</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5.18</v>
+      </c>
+      <c r="B52">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C52">
+        <v>0.499</v>
+      </c>
+      <c r="D52">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0.443</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52">
+        <v>-1.7899999999999999E-2</v>
+      </c>
+      <c r="H52">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="I52">
+        <v>5.3E-3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0.36</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="12"/>
+        <v>0.54</v>
+      </c>
+      <c r="P52">
+        <v>0.2</v>
+      </c>
+      <c r="Q52">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R52">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S52">
+        <v>0.6</v>
+      </c>
+      <c r="T52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5.4</v>
+      </c>
+      <c r="B53">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C53">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D53">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53">
+        <v>-0.1699</v>
+      </c>
+      <c r="H53">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I53">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0.54</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>0.2</v>
+      </c>
+      <c r="Q53">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R53">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S53">
+        <v>0.6</v>
+      </c>
+      <c r="T53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4.41</v>
+      </c>
+      <c r="B54">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C54">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D54">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E54">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54">
+        <v>-2.1499999999999998E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.81E-2</v>
+      </c>
+      <c r="I54">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f>N55</f>
+        <v>0.23</v>
+      </c>
+      <c r="P54">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q54">
+        <v>0.37</v>
+      </c>
+      <c r="R54">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S54">
+        <v>0.6</v>
+      </c>
+      <c r="T54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4.55</v>
+      </c>
+      <c r="B55">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C55">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="D55">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55">
+        <v>-0.1517</v>
+      </c>
+      <c r="H55">
+        <v>3.61E-2</v>
+      </c>
+      <c r="I55">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>0.23</v>
+      </c>
+      <c r="O55">
+        <f t="shared" ref="O55:O56" si="13">N56</f>
+        <v>0.36</v>
+      </c>
+      <c r="P55">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q55">
+        <v>0.37</v>
+      </c>
+      <c r="R55">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S55">
+        <v>0.6</v>
+      </c>
+      <c r="T55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4.8</v>
+      </c>
+      <c r="B56">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="C56">
+        <v>0.45</v>
+      </c>
+      <c r="D56">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="E56">
+        <v>0.44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56">
+        <v>-5.0700000000000002E-2</v>
+      </c>
+      <c r="H56">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="I56">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>0.36</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="13"/>
+        <v>0.54</v>
+      </c>
+      <c r="P56">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q56">
+        <v>0.37</v>
+      </c>
+      <c r="R56">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S56">
+        <v>0.6</v>
+      </c>
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4.79</v>
+      </c>
+      <c r="B57">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="D57">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E57">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>-0.1391</v>
+      </c>
+      <c r="H57">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="I57">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" t="s">
+        <v>22</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>0.54</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q57">
+        <v>0.37</v>
+      </c>
+      <c r="R57">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S57">
+        <v>0.6</v>
+      </c>
+      <c r="T57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4.26</v>
+      </c>
+      <c r="B58">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="C58">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D58">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E58">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58">
+        <v>-5.04E-2</v>
+      </c>
+      <c r="H58">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="I58">
+        <v>6.3E-3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" t="s">
+        <v>22</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f>N59</f>
+        <v>0.23</v>
+      </c>
+      <c r="P58">
+        <v>0.37</v>
+      </c>
+      <c r="Q58">
+        <v>0.49</v>
+      </c>
+      <c r="R58">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S58">
+        <v>0.6</v>
+      </c>
+      <c r="T58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="B59">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C59">
+        <v>0.41</v>
+      </c>
+      <c r="D59">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E59">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59">
+        <v>-4.9099999999999998E-2</v>
+      </c>
+      <c r="H59">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="I59">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" t="s">
+        <v>22</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0.23</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ref="O59:O60" si="14">N60</f>
+        <v>0.36</v>
+      </c>
+      <c r="P59">
+        <v>0.37</v>
+      </c>
+      <c r="Q59">
+        <v>0.49</v>
+      </c>
+      <c r="R59">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S59">
+        <v>0.6</v>
+      </c>
+      <c r="T59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4.59</v>
+      </c>
+      <c r="B60">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="C60">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D60">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.438</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60">
+        <v>-0.10100000000000001</v>
+      </c>
+      <c r="H60">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I60">
+        <v>1.89E-2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" t="s">
+        <v>22</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>0.36</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="14"/>
+        <v>0.54</v>
+      </c>
+      <c r="P60">
+        <v>0.37</v>
+      </c>
+      <c r="Q60">
+        <v>0.49</v>
+      </c>
+      <c r="R60">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S60">
+        <v>0.6</v>
+      </c>
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4.78</v>
+      </c>
+      <c r="B61">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D61">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="E61">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61">
+        <v>-0.1434</v>
+      </c>
+      <c r="H61">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="I61">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J61" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" t="s">
+        <v>22</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>0.54</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>0.37</v>
+      </c>
+      <c r="Q61">
+        <v>0.49</v>
+      </c>
+      <c r="R61">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S61">
+        <v>0.6</v>
+      </c>
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4.25</v>
+      </c>
+      <c r="B62">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="C62">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="D62">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E62">
+        <v>0.152</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="H62">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="I62">
+        <v>1.11E-2</v>
+      </c>
+      <c r="J62" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" t="s">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f>N63</f>
+        <v>0.23</v>
+      </c>
+      <c r="P62">
+        <v>0.49</v>
+      </c>
+      <c r="Q62">
+        <v>0.7</v>
+      </c>
+      <c r="R62">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S62">
+        <v>0.6</v>
+      </c>
+      <c r="T62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4.13</v>
+      </c>
+      <c r="B63">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C63">
+        <v>0.4</v>
+      </c>
+      <c r="D63">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="E63">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63">
+        <v>-4.1300000000000003E-2</v>
+      </c>
+      <c r="H63">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="I63">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0.23</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ref="O63:O64" si="15">N64</f>
+        <v>0.36</v>
+      </c>
+      <c r="P63">
+        <v>0.49</v>
+      </c>
+      <c r="Q63">
+        <v>0.7</v>
+      </c>
+      <c r="R63">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S63">
+        <v>0.6</v>
+      </c>
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4.25</v>
+      </c>
+      <c r="B64">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C64">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D64">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E64">
+        <v>0.443</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="H64">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="I64">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" t="s">
+        <v>22</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>0.36</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="15"/>
+        <v>0.54</v>
+      </c>
+      <c r="P64">
+        <v>0.49</v>
+      </c>
+      <c r="Q64">
+        <v>0.7</v>
+      </c>
+      <c r="R64">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S64">
+        <v>0.6</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4.67</v>
+      </c>
+      <c r="B65">
+        <v>0.21</v>
+      </c>
+      <c r="C65">
+        <v>0.437</v>
+      </c>
+      <c r="D65">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E65">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65">
+        <v>-0.2059</v>
+      </c>
+      <c r="H65">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="I65">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J65" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" t="s">
+        <v>22</v>
+      </c>
+      <c r="M65" t="s">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0.54</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>0.49</v>
+      </c>
+      <c r="Q65">
+        <v>0.7</v>
+      </c>
+      <c r="R65">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="S65">
+        <v>0.6</v>
+      </c>
+      <c r="T65" t="b">
         <v>0</v>
       </c>
     </row>
